--- a/TestData/TS09_VerifyICOContractBasedOnLOBOfLegalEntity.xlsx
+++ b/TestData/TS09_VerifyICOContractBasedOnLOBOfLegalEntity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF08A171-8B5E-49B8-8EAC-E52A25152125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="4425" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="4425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="136">
   <si>
     <t>CompanyType</t>
   </si>
@@ -432,13 +433,16 @@
     <t>Allied Capital Corporation</t>
   </si>
   <si>
-    <t>Jason Abt</t>
+    <t>Jacobs Capital, LLC</t>
+  </si>
+  <si>
+    <t>Rob Oudman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,49 +861,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="7"/>
-    <cellStyle name="20% - Accent3 2" xfId="3"/>
-    <cellStyle name="20% - Accent4 2" xfId="4"/>
-    <cellStyle name="20% - Accent5 2" xfId="5"/>
-    <cellStyle name="20% - Accent6 2" xfId="6"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="7"/>
-    <cellStyle name="40% - Accent3 2" xfId="8"/>
-    <cellStyle name="40% - Accent4 2" xfId="10"/>
-    <cellStyle name="40% - Accent5 2" xfId="9"/>
-    <cellStyle name="40% - Accent6 2" xfId="10"/>
-    <cellStyle name="60% - Accent1 2" xfId="11"/>
-    <cellStyle name="60% - Accent2 2" xfId="12"/>
-    <cellStyle name="60% - Accent3 2" xfId="13"/>
-    <cellStyle name="60% - Accent4 2" xfId="14"/>
-    <cellStyle name="60% - Accent5 2" xfId="15"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="15"/>
-    <cellStyle name="Accent2 2" xfId="16"/>
-    <cellStyle name="Accent3 2" xfId="17"/>
-    <cellStyle name="Accent4 2" xfId="18"/>
-    <cellStyle name="Accent5 2" xfId="19"/>
-    <cellStyle name="Accent6 2" xfId="20"/>
-    <cellStyle name="Bad 2" xfId="21"/>
-    <cellStyle name="Calculation 2" xfId="22"/>
-    <cellStyle name="Check Cell 2" xfId="23"/>
-    <cellStyle name="Explanatory Text 2" xfId="24"/>
-    <cellStyle name="Good 2" xfId="25"/>
-    <cellStyle name="Heading 1 2" xfId="26"/>
-    <cellStyle name="Heading 2 2" xfId="27"/>
-    <cellStyle name="Heading 3 2" xfId="28"/>
-    <cellStyle name="Heading 4 2" xfId="29"/>
-    <cellStyle name="Input 2" xfId="30"/>
-    <cellStyle name="Linked Cell 2" xfId="31"/>
-    <cellStyle name="Neutral 2" xfId="32"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Neutral 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Note 2" xfId="33"/>
-    <cellStyle name="Output 2" xfId="34"/>
-    <cellStyle name="Title 2" xfId="35"/>
-    <cellStyle name="Total 2" xfId="36"/>
-    <cellStyle name="Warning Text 2" xfId="37"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Output 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Total 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Warning Text 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,11 +1180,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1306,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1312,11 +1316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,10 +1654,10 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>105</v>
@@ -1749,7 +1753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1851,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,7 +1897,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>111</v>
@@ -1914,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
